--- a/03_Outputs/all/01_TablasDescriptivas/idx15_vejez.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx15_vejez.xlsx
@@ -424,7 +424,7 @@
         <v>8.691129318714141</v>
       </c>
       <c r="D3">
-        <v>6.047865181183778</v>
+        <v>6.047865181183779</v>
       </c>
       <c r="E3">
         <v>0.6311079859733582</v>
